--- a/Scotch_data/Excel_data.xlsx
+++ b/Scotch_data/Excel_data.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5800" yWindow="1040" windowWidth="39440" windowHeight="19820" tabRatio="500"/>
+    <workbookView xWindow="1560" yWindow="1460" windowWidth="25220" windowHeight="21060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Recovered_Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001" refMode="R1C1" concurrentCalc="0"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:CG113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="Q3" sqref="Q3:AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>

--- a/Scotch_data/Excel_data.xlsx
+++ b/Scotch_data/Excel_data.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26709"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilvissing/PycharmProjects/whiskey/Scotch_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1460" windowWidth="25220" windowHeight="21060" tabRatio="500"/>
+    <workbookView xWindow="9440" yWindow="17300" windowWidth="25220" windowHeight="20040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Recovered_Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" refMode="R1C1" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="150001" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -676,6 +680,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1007,7 +1016,7 @@
       <selection activeCell="Q3" sqref="Q3:AB3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="5.83203125" customWidth="1"/>
@@ -1058,7 +1067,7 @@
     <col min="84" max="84" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" s="1" customFormat="1">
+    <row r="1" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1270,7 +1279,7 @@
       <c r="BW1" s="2"/>
       <c r="BX1" s="2"/>
     </row>
-    <row r="2" spans="1:85" s="1" customFormat="1">
+    <row r="2" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1524,7 +1533,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:85">
+    <row r="3" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -1782,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:85">
+    <row r="4" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -2040,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:85">
+    <row r="5" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -2298,7 +2307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:85">
+    <row r="6" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -2556,7 +2565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:85">
+    <row r="7" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -2814,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:85">
+    <row r="8" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -3072,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:85">
+    <row r="9" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -3330,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:85">
+    <row r="10" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -3588,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:85">
+    <row r="11" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -3846,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:85">
+    <row r="12" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -4104,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:85">
+    <row r="13" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -4362,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:85">
+    <row r="14" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -4620,7 +4629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:85">
+    <row r="15" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>91</v>
       </c>
@@ -4878,7 +4887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:85">
+    <row r="16" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>92</v>
       </c>
@@ -5136,7 +5145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:85">
+    <row r="17" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>93</v>
       </c>
@@ -5394,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:85">
+    <row r="18" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>96</v>
       </c>
@@ -5652,7 +5661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:85">
+    <row r="19" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -5910,7 +5919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:85">
+    <row r="20" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>99</v>
       </c>
@@ -6168,7 +6177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:85" ht="12" customHeight="1">
+    <row r="21" spans="1:85" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -6426,7 +6435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:85">
+    <row r="22" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -6684,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:85">
+    <row r="23" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -6942,7 +6951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:85">
+    <row r="24" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>103</v>
       </c>
@@ -7200,7 +7209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:85">
+    <row r="25" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -7458,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:85">
+    <row r="26" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>105</v>
       </c>
@@ -7716,7 +7725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:85">
+    <row r="27" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>106</v>
       </c>
@@ -7974,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:85">
+    <row r="28" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>107</v>
       </c>
@@ -8232,7 +8241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:85">
+    <row r="29" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -8490,7 +8499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:85">
+    <row r="30" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>109</v>
       </c>
@@ -8748,7 +8757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:85">
+    <row r="31" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>110</v>
       </c>
@@ -9006,7 +9015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:85">
+    <row r="32" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>111</v>
       </c>
@@ -9264,7 +9273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:85">
+    <row r="33" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>112</v>
       </c>
@@ -9522,7 +9531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:85">
+    <row r="34" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>113</v>
       </c>
@@ -9780,7 +9789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:85">
+    <row r="35" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -10038,7 +10047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:85">
+    <row r="36" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -10296,7 +10305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:85">
+    <row r="37" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>116</v>
       </c>
@@ -10554,7 +10563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:85">
+    <row r="38" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>117</v>
       </c>
@@ -10812,7 +10821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:85">
+    <row r="39" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>119</v>
       </c>
@@ -11070,7 +11079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:85">
+    <row r="40" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -11328,7 +11337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:85">
+    <row r="41" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>121</v>
       </c>
@@ -11586,7 +11595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:85">
+    <row r="42" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>122</v>
       </c>
@@ -11844,7 +11853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:85">
+    <row r="43" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>123</v>
       </c>
@@ -12102,7 +12111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:85">
+    <row r="44" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>124</v>
       </c>
@@ -12360,7 +12369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:85">
+    <row r="45" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>125</v>
       </c>
@@ -12618,7 +12627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:85">
+    <row r="46" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>126</v>
       </c>
@@ -12876,7 +12885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:85">
+    <row r="47" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>127</v>
       </c>
@@ -13134,7 +13143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:85">
+    <row r="48" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>128</v>
       </c>
@@ -13392,7 +13401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:85">
+    <row r="49" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>129</v>
       </c>
@@ -13650,7 +13659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:85">
+    <row r="50" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>130</v>
       </c>
@@ -13908,7 +13917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:85">
+    <row r="51" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>131</v>
       </c>
@@ -14166,7 +14175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:85">
+    <row r="52" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>132</v>
       </c>
@@ -14424,7 +14433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:85">
+    <row r="53" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>133</v>
       </c>
@@ -14682,7 +14691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:85">
+    <row r="54" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>134</v>
       </c>
@@ -14940,7 +14949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:85">
+    <row r="55" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>135</v>
       </c>
@@ -15198,7 +15207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:85">
+    <row r="56" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>136</v>
       </c>
@@ -15456,7 +15465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:85">
+    <row r="57" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>137</v>
       </c>
@@ -15714,7 +15723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:85">
+    <row r="58" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>138</v>
       </c>
@@ -15972,7 +15981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:85">
+    <row r="59" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>139</v>
       </c>
@@ -16230,7 +16239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:85">
+    <row r="60" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>140</v>
       </c>
@@ -16488,7 +16497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:85">
+    <row r="61" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>141</v>
       </c>
@@ -16746,7 +16755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:85">
+    <row r="62" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>142</v>
       </c>
@@ -17004,7 +17013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:85">
+    <row r="63" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>143</v>
       </c>
@@ -17262,7 +17271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:85">
+    <row r="64" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>144</v>
       </c>
@@ -17520,7 +17529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:85">
+    <row r="65" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>146</v>
       </c>
@@ -17778,7 +17787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:85">
+    <row r="66" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>147</v>
       </c>
@@ -18036,7 +18045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:85">
+    <row r="67" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>148</v>
       </c>
@@ -18294,7 +18303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:85">
+    <row r="68" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>149</v>
       </c>
@@ -18552,7 +18561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:85">
+    <row r="69" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>150</v>
       </c>
@@ -18810,7 +18819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:85">
+    <row r="70" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>151</v>
       </c>
@@ -19068,7 +19077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:85">
+    <row r="71" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -19326,7 +19335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:85">
+    <row r="72" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>154</v>
       </c>
@@ -19584,7 +19593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:85">
+    <row r="73" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>155</v>
       </c>
@@ -19842,7 +19851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:85">
+    <row r="74" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>156</v>
       </c>
@@ -20100,7 +20109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:85">
+    <row r="75" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>157</v>
       </c>
@@ -20358,7 +20367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:85">
+    <row r="76" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>159</v>
       </c>
@@ -20616,7 +20625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:85">
+    <row r="77" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>160</v>
       </c>
@@ -20874,7 +20883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:85">
+    <row r="78" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>161</v>
       </c>
@@ -21132,7 +21141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:85">
+    <row r="79" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>162</v>
       </c>
@@ -21390,7 +21399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:85">
+    <row r="80" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>163</v>
       </c>
@@ -21648,7 +21657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:85">
+    <row r="81" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>164</v>
       </c>
@@ -21906,7 +21915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:85">
+    <row r="82" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>165</v>
       </c>
@@ -22164,7 +22173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:85">
+    <row r="83" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>166</v>
       </c>
@@ -22422,7 +22431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:85">
+    <row r="84" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>168</v>
       </c>
@@ -22680,7 +22689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:85">
+    <row r="85" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>169</v>
       </c>
@@ -22938,7 +22947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:85">
+    <row r="86" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>170</v>
       </c>
@@ -23196,7 +23205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:85">
+    <row r="87" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>171</v>
       </c>
@@ -23454,7 +23463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:85">
+    <row r="88" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>172</v>
       </c>
@@ -23712,7 +23721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:85">
+    <row r="89" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>173</v>
       </c>
@@ -23970,7 +23979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:85">
+    <row r="90" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>174</v>
       </c>
@@ -24228,7 +24237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:85">
+    <row r="91" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>175</v>
       </c>
@@ -24486,7 +24495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:85">
+    <row r="92" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>176</v>
       </c>
@@ -24744,7 +24753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:85">
+    <row r="93" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>177</v>
       </c>
@@ -25002,7 +25011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:85">
+    <row r="94" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>178</v>
       </c>
@@ -25260,7 +25269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:85">
+    <row r="95" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>179</v>
       </c>
@@ -25518,7 +25527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:85">
+    <row r="96" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>181</v>
       </c>
@@ -25776,7 +25785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:85">
+    <row r="97" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>182</v>
       </c>
@@ -26034,7 +26043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:85">
+    <row r="98" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>183</v>
       </c>
@@ -26292,7 +26301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:85">
+    <row r="99" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>184</v>
       </c>
@@ -26550,7 +26559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:85">
+    <row r="100" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>185</v>
       </c>
@@ -26808,7 +26817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:85">
+    <row r="101" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>186</v>
       </c>
@@ -27065,7 +27074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:85">
+    <row r="102" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>188</v>
       </c>
@@ -27323,7 +27332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:85">
+    <row r="103" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>189</v>
       </c>
@@ -27581,7 +27590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:85">
+    <row r="104" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>191</v>
       </c>
@@ -27839,7 +27848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:85">
+    <row r="105" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>192</v>
       </c>
@@ -28097,7 +28106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:85">
+    <row r="106" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>193</v>
       </c>
@@ -28355,7 +28364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:85">
+    <row r="107" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>194</v>
       </c>
@@ -28613,7 +28622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:85">
+    <row r="108" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>196</v>
       </c>
@@ -28871,7 +28880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:85">
+    <row r="109" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>197</v>
       </c>
@@ -29129,7 +29138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:85">
+    <row r="110" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>198</v>
       </c>
@@ -29387,7 +29396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:85">
+    <row r="111" spans="1:85" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>199</v>
       </c>
@@ -29645,7 +29654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:85">
+    <row r="113" spans="3:85" x14ac:dyDescent="0.15">
       <c r="C113" s="3">
         <f t="shared" ref="C113:AH113" si="5">SUM(C3:C111)</f>
         <v>8</v>
@@ -29964,10 +29973,5 @@
     <oddHeader>&amp;f</oddHeader>
     <oddFooter>Page &amp;p</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>